--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Expleo Solutions Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -846,7 +846,7 @@
         <v>39.34</v>
       </c>
       <c r="I5">
-        <v>0.8288235294117646</v>
+        <v>0.83</v>
       </c>
       <c r="J5">
         <v>1.33</v>
@@ -923,7 +923,7 @@
         <v>49.68</v>
       </c>
       <c r="I6">
-        <v>0.8288235294117646</v>
+        <v>0.83</v>
       </c>
       <c r="J6">
         <v>1.59</v>
@@ -1000,7 +1000,7 @@
         <v>43.83</v>
       </c>
       <c r="I7">
-        <v>0.8288235294117646</v>
+        <v>0.83</v>
       </c>
       <c r="J7">
         <v>1.28</v>
@@ -1533,7 +1533,7 @@
         <v>260.93</v>
       </c>
       <c r="G14">
-        <v>3.269285714285714</v>
+        <v>3.27</v>
       </c>
       <c r="H14">
         <v>104.59</v>
@@ -1584,7 +1584,7 @@
         <v>30.81</v>
       </c>
       <c r="X14">
-        <v>1.2375</v>
+        <v>1.24</v>
       </c>
       <c r="Y14">
         <v>240</v>
@@ -1610,7 +1610,7 @@
         <v>283.8</v>
       </c>
       <c r="G15">
-        <v>3.269285714285714</v>
+        <v>3.27</v>
       </c>
       <c r="H15">
         <v>115.36</v>
@@ -1661,7 +1661,7 @@
         <v>30.87</v>
       </c>
       <c r="X15">
-        <v>1.2375</v>
+        <v>1.24</v>
       </c>
       <c r="Y15">
         <v>240</v>
@@ -1687,7 +1687,7 @@
         <v>288.33</v>
       </c>
       <c r="G16">
-        <v>3.269285714285714</v>
+        <v>3.27</v>
       </c>
       <c r="H16">
         <v>124.98</v>
@@ -1735,10 +1735,10 @@
         <v>29.35</v>
       </c>
       <c r="W16">
-        <v>9.835333333333331</v>
+        <v>9.84</v>
       </c>
       <c r="X16">
-        <v>1.2375</v>
+        <v>1.24</v>
       </c>
       <c r="Y16">
         <v>89</v>
@@ -1764,7 +1764,7 @@
         <v>276.17</v>
       </c>
       <c r="G17">
-        <v>3.269285714285714</v>
+        <v>3.27</v>
       </c>
       <c r="H17">
         <v>134.72</v>
@@ -1812,10 +1812,10 @@
         <v>33.73</v>
       </c>
       <c r="W17">
-        <v>9.835333333333331</v>
+        <v>9.84</v>
       </c>
       <c r="X17">
-        <v>1.2375</v>
+        <v>1.24</v>
       </c>
       <c r="Y17">
         <v>89</v>
@@ -1841,7 +1841,7 @@
         <v>305.83</v>
       </c>
       <c r="G18">
-        <v>3.269285714285714</v>
+        <v>3.27</v>
       </c>
       <c r="H18">
         <v>126.54</v>
@@ -1889,10 +1889,10 @@
         <v>44.14</v>
       </c>
       <c r="W18">
-        <v>9.835333333333331</v>
+        <v>9.84</v>
       </c>
       <c r="X18">
-        <v>1.2375</v>
+        <v>1.24</v>
       </c>
       <c r="Y18">
         <v>89</v>
@@ -1918,7 +1918,7 @@
         <v>406.9</v>
       </c>
       <c r="G19">
-        <v>3.269285714285714</v>
+        <v>3.27</v>
       </c>
       <c r="H19">
         <v>172.5</v>
@@ -1966,10 +1966,10 @@
         <v>48.6</v>
       </c>
       <c r="W19">
-        <v>9.835333333333331</v>
+        <v>9.84</v>
       </c>
       <c r="X19">
-        <v>1.2375</v>
+        <v>1.24</v>
       </c>
       <c r="Y19">
         <v>89</v>
@@ -2043,10 +2043,10 @@
         <v>79.42</v>
       </c>
       <c r="W20">
-        <v>9.835333333333331</v>
+        <v>9.84</v>
       </c>
       <c r="X20">
-        <v>1.2375</v>
+        <v>1.24</v>
       </c>
       <c r="Y20">
         <v>89</v>
@@ -2123,7 +2123,7 @@
         <v>7.76</v>
       </c>
       <c r="X21">
-        <v>1.2375</v>
+        <v>1.24</v>
       </c>
       <c r="Y21">
         <v>89</v>
